--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_11_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2424857.110964991</v>
+        <v>2426617.641267777</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11309886.53027065</v>
+        <v>11309886.53027066</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9350204.989520296</v>
+        <v>9350204.989520295</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.21022140383137</v>
+      </c>
+      <c r="H2" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40.36809222617124</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>50.48273419507654</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>18.28182508062843</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>44.46519227902341</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,55 +758,55 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>44.4651922790234</v>
-      </c>
-      <c r="T3" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="U3" t="n">
-        <v>50.48273419507654</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8.386866521745219</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="E4" t="n">
         <v>50.48273419507654</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>8.386866521745233</v>
       </c>
       <c r="G4" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>50.48273419507654</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="D5" t="n">
-        <v>40.50775113562097</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="E5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>47.38379687733242</v>
       </c>
       <c r="G5" t="n">
         <v>53.79631798062264</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>47.38379687733242</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>47.38379687733242</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>53.79631798062264</v>
-      </c>
-      <c r="G7" t="n">
-        <v>53.79631798062264</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>14.93225064571201</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>52.6063073409206</v>
       </c>
       <c r="W7" t="n">
-        <v>52.60630734092059</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>80.34349396157691</v>
+        <v>170.1331892653144</v>
       </c>
       <c r="D8" t="n">
-        <v>170.133189265314</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>170.133189265314</v>
+        <v>170.1331892653144</v>
       </c>
       <c r="F8" t="n">
-        <v>170.133189265314</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.80371436173802</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>55.7061047815736</v>
+        <v>55.70610478157332</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>73.46744821986616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>170.1331892653144</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,16 +1214,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>170.133189265314</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>170.1331892653144</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>170.1331892653144</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.87221513686432</v>
+        <v>153.4533187203359</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.67871628332961</v>
+        <v>22.67871628333129</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.85685983116026</v>
+        <v>29.85685983116009</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>70.58974991479204</v>
       </c>
       <c r="F13" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>246.4095280310181</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>179.6801338456687</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5981994227929</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>1.594095449514675</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>78.6882778203391</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>178.5134655978075</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>70.38407275859021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>99.97427419833814</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>147.4507120583063</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,10 +3562,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>32.27552175740409</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150.9382759771985</v>
+        <v>183.4644467998734</v>
       </c>
       <c r="C2" t="n">
-        <v>150.9382759771985</v>
+        <v>183.4644467998734</v>
       </c>
       <c r="D2" t="n">
-        <v>150.9382759771985</v>
+        <v>132.4717859967658</v>
       </c>
       <c r="E2" t="n">
-        <v>150.9382759771985</v>
+        <v>132.4717859967658</v>
       </c>
       <c r="F2" t="n">
-        <v>99.94561517409093</v>
+        <v>125.5262852475623</v>
       </c>
       <c r="G2" t="n">
-        <v>59.16976444058463</v>
+        <v>110.1624252436922</v>
       </c>
       <c r="H2" t="n">
         <v>59.16976444058463</v>
@@ -4336,7 +4336,7 @@
         <v>4.038618735606123</v>
       </c>
       <c r="L2" t="n">
-        <v>4.038618735606123</v>
+        <v>54.01652558873189</v>
       </c>
       <c r="M2" t="n">
         <v>54.01652558873189</v>
@@ -4360,22 +4360,22 @@
         <v>201.9309367803062</v>
       </c>
       <c r="T2" t="n">
-        <v>150.9382759771985</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="U2" t="n">
-        <v>150.9382759771985</v>
+        <v>183.4644467998734</v>
       </c>
       <c r="V2" t="n">
-        <v>150.9382759771985</v>
+        <v>183.4644467998734</v>
       </c>
       <c r="W2" t="n">
-        <v>150.9382759771985</v>
+        <v>183.4644467998734</v>
       </c>
       <c r="X2" t="n">
-        <v>150.9382759771985</v>
+        <v>183.4644467998734</v>
       </c>
       <c r="Y2" t="n">
-        <v>150.9382759771985</v>
+        <v>183.4644467998734</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.03127953871374</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="C3" t="n">
-        <v>55.03127953871374</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="D3" t="n">
-        <v>55.03127953871374</v>
+        <v>106.0239403418214</v>
       </c>
       <c r="E3" t="n">
         <v>55.03127953871374</v>
       </c>
       <c r="F3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="G3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="H3" t="n">
-        <v>55.03127953871374</v>
+        <v>4.038618735606123</v>
       </c>
       <c r="I3" t="n">
         <v>4.038618735606123</v>
@@ -4415,7 +4415,7 @@
         <v>4.038618735606123</v>
       </c>
       <c r="L3" t="n">
-        <v>54.01652558873189</v>
+        <v>51.99721622092883</v>
       </c>
       <c r="M3" t="n">
         <v>101.9751230740546</v>
@@ -4436,25 +4436,25 @@
         <v>201.9309367803062</v>
       </c>
       <c r="S3" t="n">
-        <v>157.016601144929</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="T3" t="n">
-        <v>106.0239403418214</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="U3" t="n">
-        <v>55.03127953871374</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="V3" t="n">
-        <v>55.03127953871374</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="W3" t="n">
-        <v>55.03127953871374</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="X3" t="n">
-        <v>55.03127953871374</v>
+        <v>201.9309367803062</v>
       </c>
       <c r="Y3" t="n">
-        <v>55.03127953871374</v>
+        <v>150.9382759771985</v>
       </c>
     </row>
     <row r="4">
@@ -4470,13 +4470,13 @@
         <v>165.4881834901262</v>
       </c>
       <c r="D4" t="n">
-        <v>157.016601144929</v>
+        <v>114.4955226870186</v>
       </c>
       <c r="E4" t="n">
-        <v>106.0239403418214</v>
+        <v>63.50286188391095</v>
       </c>
       <c r="F4" t="n">
-        <v>106.0239403418214</v>
+        <v>55.03127953871374</v>
       </c>
       <c r="G4" t="n">
         <v>55.03127953871374</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="C5" t="n">
         <v>160.8455567905485</v>
       </c>
       <c r="D5" t="n">
-        <v>119.9286364515374</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="E5" t="n">
-        <v>65.58892131959534</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="F5" t="n">
         <v>58.64342057039187</v>
@@ -4573,16 +4573,16 @@
         <v>4.303705438449811</v>
       </c>
       <c r="L5" t="n">
-        <v>57.56206023926622</v>
+        <v>4.303705438449811</v>
       </c>
       <c r="M5" t="n">
+        <v>55.4102075200413</v>
+      </c>
+      <c r="N5" t="n">
         <v>108.6685623208577</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>161.9269171216741</v>
-      </c>
-      <c r="O5" t="n">
-        <v>215.1852719224906</v>
       </c>
       <c r="P5" t="n">
         <v>215.1852719224906</v>
@@ -4609,10 +4609,10 @@
         <v>215.1852719224906</v>
       </c>
       <c r="X5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Y5" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.303705438449811</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="C6" t="n">
-        <v>4.303705438449811</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="D6" t="n">
-        <v>4.303705438449811</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="E6" t="n">
-        <v>4.303705438449811</v>
+        <v>160.8455567905485</v>
       </c>
       <c r="F6" t="n">
-        <v>4.303705438449811</v>
+        <v>106.5058416586064</v>
       </c>
       <c r="G6" t="n">
-        <v>4.303705438449811</v>
+        <v>52.16612652666438</v>
       </c>
       <c r="H6" t="n">
         <v>4.303705438449811</v>
@@ -4649,49 +4649,49 @@
         <v>4.303705438449811</v>
       </c>
       <c r="K6" t="n">
+        <v>4.303705438449811</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.303705438449811</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.303705438449811</v>
+      </c>
+      <c r="N6" t="n">
         <v>55.4102075200413</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>108.6685623208577</v>
       </c>
-      <c r="M6" t="n">
-        <v>108.6685623208577</v>
-      </c>
-      <c r="N6" t="n">
-        <v>108.6685623208577</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>161.9269171216741</v>
-      </c>
-      <c r="P6" t="n">
-        <v>215.1852719224906</v>
       </c>
       <c r="Q6" t="n">
         <v>215.1852719224906</v>
       </c>
       <c r="R6" t="n">
-        <v>160.8455567905485</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="S6" t="n">
-        <v>106.5058416586064</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="T6" t="n">
-        <v>52.16612652666438</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="U6" t="n">
-        <v>4.303705438449811</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="V6" t="n">
-        <v>4.303705438449811</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="W6" t="n">
-        <v>4.303705438449811</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="X6" t="n">
-        <v>4.303705438449811</v>
+        <v>215.1852719224906</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.303705438449811</v>
+        <v>215.1852719224906</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.0662171626491</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="C7" t="n">
-        <v>128.0662171626491</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="D7" t="n">
-        <v>128.0662171626491</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0662171626491</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="F7" t="n">
         <v>73.72650203070704</v>
       </c>
       <c r="G7" t="n">
-        <v>19.38678689876497</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="H7" t="n">
-        <v>19.38678689876497</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="I7" t="n">
-        <v>19.38678689876497</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="J7" t="n">
         <v>19.38678689876497</v>
@@ -4746,31 +4746,31 @@
         <v>181.2039013453972</v>
       </c>
       <c r="Q7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="R7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="S7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="T7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="U7" t="n">
-        <v>181.2039013453972</v>
+        <v>126.8641862134551</v>
       </c>
       <c r="V7" t="n">
-        <v>181.2039013453972</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="W7" t="n">
-        <v>128.0662171626491</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="X7" t="n">
-        <v>128.0662171626491</v>
+        <v>73.72650203070704</v>
       </c>
       <c r="Y7" t="n">
-        <v>128.0662171626491</v>
+        <v>73.72650203070704</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>624.2639643525957</v>
+        <v>378.2027143675668</v>
       </c>
       <c r="C8" t="n">
-        <v>543.1089199469625</v>
+        <v>206.3510080389664</v>
       </c>
       <c r="D8" t="n">
-        <v>371.2572136183625</v>
+        <v>206.3510080389664</v>
       </c>
       <c r="E8" t="n">
-        <v>199.4055072897625</v>
+        <v>34.49930171036601</v>
       </c>
       <c r="F8" t="n">
-        <v>27.55380096116252</v>
+        <v>27.55380096116254</v>
       </c>
       <c r="G8" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122515</v>
       </c>
       <c r="H8" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122515</v>
       </c>
       <c r="I8" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122515</v>
       </c>
       <c r="J8" t="n">
-        <v>127.7362978821335</v>
+        <v>127.7362978821339</v>
       </c>
       <c r="K8" t="n">
-        <v>127.7362978821335</v>
+        <v>127.7362978821339</v>
       </c>
       <c r="L8" t="n">
-        <v>128.5190723787506</v>
+        <v>128.5190723787517</v>
       </c>
       <c r="M8" t="n">
-        <v>161.0594972748372</v>
+        <v>161.0594972748391</v>
       </c>
       <c r="N8" t="n">
-        <v>198.7402686445423</v>
+        <v>198.740268644545</v>
       </c>
       <c r="O8" t="n">
-        <v>361.7328317201551</v>
+        <v>361.7328317201559</v>
       </c>
       <c r="P8" t="n">
-        <v>530.1646890928159</v>
+        <v>530.1646890928172</v>
       </c>
       <c r="Q8" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612576</v>
       </c>
       <c r="R8" t="n">
-        <v>624.2639643525957</v>
+        <v>624.2639643525977</v>
       </c>
       <c r="S8" t="n">
-        <v>624.2639643525957</v>
+        <v>624.2639643525977</v>
       </c>
       <c r="T8" t="n">
-        <v>624.2639643525957</v>
+        <v>624.2639643525977</v>
       </c>
       <c r="U8" t="n">
-        <v>624.2639643525957</v>
+        <v>550.0544206961672</v>
       </c>
       <c r="V8" t="n">
-        <v>624.2639643525957</v>
+        <v>550.0544206961672</v>
       </c>
       <c r="W8" t="n">
-        <v>624.2639643525957</v>
+        <v>378.2027143675668</v>
       </c>
       <c r="X8" t="n">
-        <v>624.2639643525957</v>
+        <v>378.2027143675668</v>
       </c>
       <c r="Y8" t="n">
-        <v>624.2639643525957</v>
+        <v>378.2027143675668</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>491.2343744483957</v>
+        <v>13.61065514122515</v>
       </c>
       <c r="C9" t="n">
-        <v>319.3826681197957</v>
+        <v>13.61065514122515</v>
       </c>
       <c r="D9" t="n">
-        <v>319.3826681197957</v>
+        <v>13.61065514122515</v>
       </c>
       <c r="E9" t="n">
-        <v>160.1452131143402</v>
+        <v>13.61065514122515</v>
       </c>
       <c r="F9" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122515</v>
       </c>
       <c r="G9" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122515</v>
       </c>
       <c r="H9" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122515</v>
       </c>
       <c r="I9" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122515</v>
       </c>
       <c r="J9" t="n">
-        <v>87.8897264357838</v>
+        <v>13.61065514122515</v>
       </c>
       <c r="K9" t="n">
-        <v>87.8897264357838</v>
+        <v>182.0425125138864</v>
       </c>
       <c r="L9" t="n">
-        <v>256.3215838084446</v>
+        <v>350.4743698865477</v>
       </c>
       <c r="M9" t="n">
-        <v>316.7973784014689</v>
+        <v>518.9062272592089</v>
       </c>
       <c r="N9" t="n">
-        <v>393.2824322417748</v>
+        <v>613.7938852597991</v>
       </c>
       <c r="O9" t="n">
-        <v>441.031518738812</v>
+        <v>661.5429717568369</v>
       </c>
       <c r="P9" t="n">
-        <v>512.1008996885951</v>
+        <v>680.5327570612576</v>
       </c>
       <c r="Q9" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612576</v>
       </c>
       <c r="R9" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612576</v>
       </c>
       <c r="S9" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612576</v>
       </c>
       <c r="T9" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612576</v>
       </c>
       <c r="U9" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612576</v>
       </c>
       <c r="V9" t="n">
-        <v>680.5327570612559</v>
+        <v>508.6810507326572</v>
       </c>
       <c r="W9" t="n">
-        <v>680.5327570612559</v>
+        <v>508.6810507326572</v>
       </c>
       <c r="X9" t="n">
-        <v>680.5327570612559</v>
+        <v>336.8293444040568</v>
       </c>
       <c r="Y9" t="n">
-        <v>659.4497114684636</v>
+        <v>181.8259921612932</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.4665185617712</v>
+        <v>627.4665185617713</v>
       </c>
       <c r="C10" t="n">
-        <v>458.5303356338643</v>
+        <v>458.5303356338644</v>
       </c>
       <c r="D10" t="n">
-        <v>308.4136962215286</v>
+        <v>308.4136962215287</v>
       </c>
       <c r="E10" t="n">
         <v>160.5006026391355</v>
       </c>
       <c r="F10" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122515</v>
       </c>
       <c r="G10" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122515</v>
       </c>
       <c r="H10" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122515</v>
       </c>
       <c r="I10" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122515</v>
       </c>
       <c r="J10" t="n">
-        <v>13.61065514122512</v>
+        <v>13.61065514122515</v>
       </c>
       <c r="K10" t="n">
-        <v>68.90447724057989</v>
+        <v>68.90447724058015</v>
       </c>
       <c r="L10" t="n">
-        <v>195.1879671340621</v>
+        <v>195.1879671340627</v>
       </c>
       <c r="M10" t="n">
-        <v>338.7253240694248</v>
+        <v>338.7253240694257</v>
       </c>
       <c r="N10" t="n">
-        <v>484.2842999004851</v>
+        <v>484.2842999004863</v>
       </c>
       <c r="O10" t="n">
-        <v>602.7152779689138</v>
+        <v>602.7152779689153</v>
       </c>
       <c r="P10" t="n">
-        <v>680.5327570612559</v>
+        <v>680.5327570612576</v>
       </c>
       <c r="Q10" t="n">
-        <v>650.3743127873566</v>
+        <v>650.3743127873585</v>
       </c>
       <c r="R10" t="n">
-        <v>650.3743127873566</v>
+        <v>650.3743127873585</v>
       </c>
       <c r="S10" t="n">
-        <v>650.3743127873566</v>
+        <v>650.3743127873585</v>
       </c>
       <c r="T10" t="n">
-        <v>650.3743127873566</v>
+        <v>650.3743127873585</v>
       </c>
       <c r="U10" t="n">
-        <v>650.3743127873566</v>
+        <v>650.3743127873585</v>
       </c>
       <c r="V10" t="n">
-        <v>650.3743127873566</v>
+        <v>650.3743127873585</v>
       </c>
       <c r="W10" t="n">
-        <v>650.3743127873566</v>
+        <v>650.3743127873585</v>
       </c>
       <c r="X10" t="n">
-        <v>650.3743127873566</v>
+        <v>650.3743127873585</v>
       </c>
       <c r="Y10" t="n">
-        <v>650.3743127873566</v>
+        <v>650.3743127873585</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5077,7 +5077,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101285</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5369,13 +5369,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>809.0422355233313</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C16" t="n">
-        <v>640.1060525954244</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X16" t="n">
-        <v>1029.834814666861</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y16" t="n">
-        <v>809.0422355233313</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5843,16 +5843,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5974,10 +5974,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694706</v>
@@ -6022,7 +6022,7 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123002</v>
@@ -6080,7 +6080,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6150,49 +6150,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6317,7 +6317,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1031.260321675049</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>862.3241387471426</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>712.2074993348068</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>564.2944057524137</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1212.908786505289</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,10 +6460,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6493,22 +6493,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6554,7 +6554,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2083.791617318188</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,25 +6712,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6791,7 +6791,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="38">
@@ -7168,22 +7168,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7198,25 +7198,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7265,13 +7265,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7490,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7678,7 +7678,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7742,7 +7742,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7984,10 +7984,10 @@
         <v>208.3214547517356</v>
       </c>
       <c r="L2" t="n">
-        <v>221.1666787354324</v>
+        <v>271.649412930509</v>
       </c>
       <c r="M2" t="n">
-        <v>264.5839477933977</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
         <v>263.3879167614743</v>
@@ -8063,10 +8063,10 @@
         <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
-        <v>178.2892129380686</v>
+        <v>176.2495065059443</v>
       </c>
       <c r="M3" t="n">
-        <v>178.0347681206704</v>
+        <v>180.0744745527947</v>
       </c>
       <c r="N3" t="n">
         <v>118.4674613291454</v>
@@ -8221,7 +8221,7 @@
         <v>202.1809638361346</v>
       </c>
       <c r="L5" t="n">
-        <v>267.3451747559029</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
         <v>257.2476482458454</v>
@@ -8233,7 +8233,7 @@
         <v>260.1731688314972</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>264.7836813017771</v>
       </c>
       <c r="Q5" t="n">
         <v>207.1020630664798</v>
@@ -8297,16 +8297,16 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>177.3002272563451</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
-        <v>175.9947778369091</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
         <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>163.3726892003442</v>
       </c>
       <c r="O6" t="n">
         <v>178.4699366681766</v>
@@ -8315,7 +8315,7 @@
         <v>173.3862381384502</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3661252938572</v>
+        <v>184.1624432744798</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>29.40848459605334</v>
+        <v>29.40848459605274</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>142.1686266863923</v>
+        <v>142.1686266863896</v>
       </c>
       <c r="P8" t="n">
-        <v>185.8047817831492</v>
+        <v>185.8047817831489</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>51.06167039640995</v>
       </c>
       <c r="K9" t="n">
-        <v>8.328260291752173</v>
+        <v>178.4614495570662</v>
       </c>
       <c r="L9" t="n">
-        <v>134.5411173874634</v>
+        <v>134.5411173874633</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>109.0465280602388</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>18.58848905079165</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>52.60565216703316</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>207.7342274853337</v>
+        <v>37.60103822001938</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-1.31875128773828e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>-2.387423592153937e-12</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-7.6250157187155e-13</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>75.84421273177713</v>
       </c>
       <c r="F13" t="n">
-        <v>110.003342051665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>5.728115292809889</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>46.02952154336845</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9259388694759707</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>284.9289028870763</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>44.7370056418716</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>66.73277020259215</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>38.89198472948078</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>40.32043864788575</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>78.25894333073083</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>831656.3216490074</v>
+        <v>831656.3216490073</v>
       </c>
     </row>
     <row r="5">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>793677.3183128916</v>
+        <v>793677.3183128915</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>793677.3183128915</v>
+        <v>793677.3183128916</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
         <v>625538.614759755</v>
@@ -26371,10 +26371,10 @@
         <v>12004.91953871608</v>
       </c>
       <c r="D3" t="n">
-        <v>325486.3975543785</v>
+        <v>325486.3975543797</v>
       </c>
       <c r="E3" t="n">
-        <v>1098807.963756737</v>
+        <v>1098807.963756736</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>852.8104317184398</v>
       </c>
       <c r="L3" t="n">
-        <v>29443.81509031382</v>
+        <v>29443.81509031392</v>
       </c>
       <c r="M3" t="n">
-        <v>249845.7249299116</v>
+        <v>249845.7249299114</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>392210.9417384904</v>
       </c>
       <c r="C4" t="n">
-        <v>389279.094329008</v>
+        <v>389279.0943290079</v>
       </c>
       <c r="D4" t="n">
-        <v>306360.6503278904</v>
+        <v>306360.6503278901</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26435,31 +26435,31 @@
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719612</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719616</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719636</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719643</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719698</v>
+        <v>7507.368461719636</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719656</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719638</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>37661.87961689879</v>
       </c>
       <c r="D5" t="n">
-        <v>52100.52571241482</v>
+        <v>52100.52571241488</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>167803.8678620752</v>
       </c>
       <c r="C6" t="n">
-        <v>197361.4781601968</v>
+        <v>197361.4781601971</v>
       </c>
       <c r="D6" t="n">
-        <v>-47640.20194986404</v>
+        <v>-47640.20194986509</v>
       </c>
       <c r="E6" t="n">
-        <v>-582246.6265369661</v>
+        <v>-581933.9852080438</v>
       </c>
       <c r="F6" t="n">
-        <v>516561.3372197712</v>
+        <v>516873.9785486923</v>
       </c>
       <c r="G6" t="n">
-        <v>516561.3372197709</v>
+        <v>516873.9785486922</v>
       </c>
       <c r="H6" t="n">
-        <v>516561.3372197709</v>
+        <v>516873.9785486927</v>
       </c>
       <c r="I6" t="n">
-        <v>516561.3372197711</v>
+        <v>516873.9785486922</v>
       </c>
       <c r="J6" t="n">
-        <v>503352.8327140344</v>
+        <v>503665.4740429556</v>
       </c>
       <c r="K6" t="n">
-        <v>515708.5267880523</v>
+        <v>516021.1681169742</v>
       </c>
       <c r="L6" t="n">
-        <v>487117.5221294573</v>
+        <v>487430.1634583784</v>
       </c>
       <c r="M6" t="n">
-        <v>266715.6122898597</v>
+        <v>267028.253618781</v>
       </c>
       <c r="N6" t="n">
-        <v>516561.3372197713</v>
+        <v>516873.9785486922</v>
       </c>
       <c r="O6" t="n">
-        <v>516561.3372197713</v>
+        <v>516873.9785486922</v>
       </c>
       <c r="P6" t="n">
-        <v>516561.3372197712</v>
+        <v>516873.9785486925</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>372.8820094075107</v>
+        <v>372.8820094075119</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="D4" t="n">
-        <v>170.133189265314</v>
+        <v>170.1331892653144</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>337.8607486883854</v>
+        <v>337.8607486883865</v>
       </c>
       <c r="E3" t="n">
-        <v>995.093490934163</v>
+        <v>995.0934909341619</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>3.313583785546101</v>
       </c>
       <c r="D4" t="n">
-        <v>116.3368712846913</v>
+        <v>116.3368712846918</v>
       </c>
       <c r="E4" t="n">
         <v>1002.575098834334</v>
@@ -27041,10 +27041,10 @@
         <v>3.313583785546143</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846913</v>
+        <v>116.3368712846918</v>
       </c>
       <c r="M4" t="n">
-        <v>1002.575098834335</v>
+        <v>1002.575098834334</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>3.313583785546101</v>
       </c>
       <c r="L4" t="n">
-        <v>116.3368712846913</v>
+        <v>116.3368712846918</v>
       </c>
       <c r="M4" t="n">
         <v>1002.575098834334</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>304.2003074256064</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>356.3933115466349</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>374.8421291776601</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>288.0445872958018</v>
       </c>
       <c r="I2" t="n">
         <v>156.4264279942944</v>
@@ -27432,10 +27432,10 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>172.208126091823</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>233.0564265383038</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>122.0679913708439</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,10 +27466,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>107.1623462603244</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>94.58647819830733</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
@@ -27478,7 +27478,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>37.2096056932131</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
-        <v>126.298529054262</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>149.4824728139983</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>175.4553912751407</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>155.1999615822278</v>
       </c>
     </row>
     <row r="4">
@@ -27542,16 +27542,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>140.2286064964671</v>
+        <v>98.13273882313581</v>
       </c>
       <c r="E4" t="n">
         <v>95.95122845149263</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>137.034181501186</v>
       </c>
       <c r="G4" t="n">
-        <v>117.4667456208323</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
         <v>111.3754696522371</v>
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>311.4765737903849</v>
       </c>
       <c r="D5" t="n">
-        <v>314.175290485062</v>
+        <v>300.8867236400603</v>
       </c>
       <c r="E5" t="n">
-        <v>328.1340520916391</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>359.492248864379</v>
       </c>
       <c r="G5" t="n">
         <v>361.3656305466968</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>315.9347826978464</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27703,16 +27703,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>103.8487624747783</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>91.27289441276125</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2681884137393</v>
+        <v>83.47187043311666</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>64.12413022611202</v>
       </c>
       <c r="I6" t="n">
         <v>86.80307722268739</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>41.68452591975693</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>116.4876546407105</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
-        <v>146.0647829915492</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>178.5526293648614</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27785,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>91.62473004230861</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>114.1315082847361</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
         <v>161.6656840978772</v>
@@ -27797,7 +27797,7 @@
         <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>35.09793845387575</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>27.07751490248382</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27833,10 +27833,10 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>199.5313359829074</v>
       </c>
       <c r="W7" t="n">
-        <v>233.9166909956704</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>284.9293978094306</v>
+        <v>195.1397025056932</v>
       </c>
       <c r="D8" t="n">
-        <v>184.549852355369</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>211.7971808069478</v>
+        <v>211.7971808069474</v>
       </c>
       <c r="F8" t="n">
-        <v>236.7428564763975</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>324.1229312460399</v>
+        <v>324.1229312460398</v>
       </c>
       <c r="I8" t="n">
-        <v>152.684799449067</v>
+        <v>152.6847994490668</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.8610794782106</v>
+        <v>174.8610794782105</v>
       </c>
       <c r="T8" t="n">
-        <v>216.5338757101359</v>
+        <v>216.5338757101358</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2257310555647</v>
+        <v>177.7582828356986</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>179.1077794520986</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27934,16 +27934,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.575309723001766</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>136.5414690675039</v>
@@ -27952,7 +27952,7 @@
         <v>104.4893481542763</v>
       </c>
       <c r="I9" t="n">
-        <v>61.78225762642489</v>
+        <v>61.78225762642481</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.36049712271177</v>
+        <v>50.36049712271162</v>
       </c>
       <c r="S9" t="n">
         <v>156.785479501566</v>
@@ -27991,16 +27991,16 @@
         <v>225.8886157588888</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>62.66739788411087</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>35.63979593816308</v>
       </c>
       <c r="Y9" t="n">
-        <v>184.81048064044</v>
+        <v>52.22937705696842</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>157.1532638986077</v>
+        <v>157.153263898606</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.2488347172667</v>
       </c>
       <c r="I10" t="n">
-        <v>135.2292669416838</v>
+        <v>135.2292669416837</v>
       </c>
       <c r="J10" t="n">
-        <v>45.81978032712834</v>
+        <v>45.81978032712819</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>147.0593845160294</v>
+        <v>147.0593845160293</v>
       </c>
       <c r="S10" t="n">
-        <v>212.2983224298543</v>
+        <v>212.2983224298542</v>
       </c>
       <c r="T10" t="n">
         <v>225.0725641098958</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-5.260329494105887e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.499023153397027</v>
+        <v>1.499023153397032</v>
       </c>
       <c r="H8" t="n">
-        <v>15.35187086972731</v>
+        <v>15.35187086972735</v>
       </c>
       <c r="I8" t="n">
-        <v>57.79109012133894</v>
+        <v>57.79109012133912</v>
       </c>
       <c r="J8" t="n">
-        <v>127.227716365631</v>
+        <v>127.2277163656314</v>
       </c>
       <c r="K8" t="n">
-        <v>190.6813664489272</v>
+        <v>190.6813664489278</v>
       </c>
       <c r="L8" t="n">
-        <v>236.5570962797015</v>
+        <v>236.5570962797023</v>
       </c>
       <c r="M8" t="n">
-        <v>263.2153492839259</v>
+        <v>263.2153492839267</v>
       </c>
       <c r="N8" t="n">
-        <v>267.4744488185152</v>
+        <v>267.4744488185161</v>
       </c>
       <c r="O8" t="n">
-        <v>252.5685373369235</v>
+        <v>252.5685373369243</v>
       </c>
       <c r="P8" t="n">
-        <v>215.5614032374344</v>
+        <v>215.561403237435</v>
       </c>
       <c r="Q8" t="n">
-        <v>161.8776365564033</v>
+        <v>161.8776365564038</v>
       </c>
       <c r="R8" t="n">
-        <v>94.16301315957608</v>
+        <v>94.16301315957637</v>
       </c>
       <c r="S8" t="n">
-        <v>34.15899010803479</v>
+        <v>34.15899010803489</v>
       </c>
       <c r="T8" t="n">
-        <v>6.561973853995489</v>
+        <v>6.561973853995509</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1199218522717621</v>
+        <v>0.1199218522717625</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8020480957067212</v>
+        <v>0.8020480957067236</v>
       </c>
       <c r="H9" t="n">
-        <v>7.746096082220177</v>
+        <v>7.746096082220201</v>
       </c>
       <c r="I9" t="n">
-        <v>27.61437522499019</v>
+        <v>27.61437522499027</v>
       </c>
       <c r="J9" t="n">
-        <v>75.77595627025651</v>
+        <v>75.77595627025674</v>
       </c>
       <c r="K9" t="n">
-        <v>129.5131786826068</v>
+        <v>129.5131786826072</v>
       </c>
       <c r="L9" t="n">
-        <v>174.1464516577247</v>
+        <v>174.1464516577253</v>
       </c>
       <c r="M9" t="n">
-        <v>203.2206951270933</v>
+        <v>203.2206951270939</v>
       </c>
       <c r="N9" t="n">
-        <v>208.5993422250564</v>
+        <v>208.5993422250571</v>
       </c>
       <c r="O9" t="n">
-        <v>190.8276449465022</v>
+        <v>190.8276449465028</v>
       </c>
       <c r="P9" t="n">
-        <v>153.1560087319264</v>
+        <v>153.1560087319269</v>
       </c>
       <c r="Q9" t="n">
-        <v>102.3807358660018</v>
+        <v>102.3807358660021</v>
       </c>
       <c r="R9" t="n">
-        <v>49.79733702993136</v>
+        <v>49.79733702993151</v>
       </c>
       <c r="S9" t="n">
-        <v>14.89769160227176</v>
+        <v>14.89769160227181</v>
       </c>
       <c r="T9" t="n">
-        <v>3.232816666467002</v>
+        <v>3.232816666467012</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05276632208596852</v>
+        <v>0.05276632208596868</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6724101808987898</v>
+        <v>0.6724101808987918</v>
       </c>
       <c r="H10" t="n">
-        <v>5.978337790172881</v>
+        <v>5.978337790172899</v>
       </c>
       <c r="I10" t="n">
-        <v>20.22120798557452</v>
+        <v>20.22120798557458</v>
       </c>
       <c r="J10" t="n">
-        <v>47.53939978954443</v>
+        <v>47.53939978954458</v>
       </c>
       <c r="K10" t="n">
-        <v>78.12183738078664</v>
+        <v>78.12183738078689</v>
       </c>
       <c r="L10" t="n">
-        <v>99.969055440171</v>
+        <v>99.9690554401713</v>
       </c>
       <c r="M10" t="n">
-        <v>105.4033522657985</v>
+        <v>105.4033522657988</v>
       </c>
       <c r="N10" t="n">
-        <v>102.897096136994</v>
+        <v>102.8970961369943</v>
       </c>
       <c r="O10" t="n">
-        <v>95.0421226601308</v>
+        <v>95.04212266013108</v>
       </c>
       <c r="P10" t="n">
-        <v>81.32495496979541</v>
+        <v>81.32495496979567</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.30518342053412</v>
+        <v>56.30518342053429</v>
       </c>
       <c r="R10" t="n">
-        <v>30.23400686114012</v>
+        <v>30.23400686114021</v>
       </c>
       <c r="S10" t="n">
-        <v>11.718275607118</v>
+        <v>11.71827560711803</v>
       </c>
       <c r="T10" t="n">
-        <v>2.873025318385737</v>
+        <v>2.873025318385746</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03667691895811585</v>
+        <v>0.03667691895811596</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,10 +34704,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="M2" t="n">
-        <v>50.48273419507654</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>50.48273419507654</v>
@@ -34783,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>48.44302776295223</v>
+      </c>
+      <c r="M3" t="n">
         <v>50.48273419507654</v>
-      </c>
-      <c r="M3" t="n">
-        <v>48.44302776295223</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>53.79631798062264</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>51.62272937534495</v>
@@ -34953,7 +34953,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>51.62272937534495</v>
-      </c>
-      <c r="L6" t="n">
-        <v>53.79631798062264</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>53.79631798062264</v>
@@ -35035,7 +35035,7 @@
         <v>53.79631798062264</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>115.2784270110185</v>
+        <v>115.2784270110189</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7906813097143015</v>
+        <v>0.790681309715012</v>
       </c>
       <c r="M8" t="n">
-        <v>32.86911605665316</v>
+        <v>32.86911605665395</v>
       </c>
       <c r="N8" t="n">
-        <v>38.0613852219243</v>
+        <v>38.06138522192515</v>
       </c>
       <c r="O8" t="n">
-        <v>164.6389526016291</v>
+        <v>164.6389526016271</v>
       </c>
       <c r="P8" t="n">
-        <v>170.133189265314</v>
+        <v>170.1331892653144</v>
       </c>
       <c r="Q8" t="n">
-        <v>151.8869373418585</v>
+        <v>151.886937341859</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>75.02936494399866</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>170.1331892653144</v>
       </c>
       <c r="L9" t="n">
-        <v>170.133189265314</v>
+        <v>170.1331892653144</v>
       </c>
       <c r="M9" t="n">
-        <v>61.08666120507502</v>
+        <v>170.1331892653144</v>
       </c>
       <c r="N9" t="n">
-        <v>77.25763014172313</v>
+        <v>95.8461191925154</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23140050205777</v>
+        <v>48.23140050205836</v>
       </c>
       <c r="P9" t="n">
-        <v>71.78725348462936</v>
+        <v>19.18160131759669</v>
       </c>
       <c r="Q9" t="n">
-        <v>170.133189265314</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>55.85234555490379</v>
+        <v>55.85234555490403</v>
       </c>
       <c r="L10" t="n">
-        <v>127.5590807004871</v>
+        <v>127.5590807004874</v>
       </c>
       <c r="M10" t="n">
-        <v>144.987229227639</v>
+        <v>144.9872292276394</v>
       </c>
       <c r="N10" t="n">
-        <v>147.0292685162225</v>
+        <v>147.0292685162229</v>
       </c>
       <c r="O10" t="n">
-        <v>119.6272505741705</v>
+        <v>119.6272505741708</v>
       </c>
       <c r="P10" t="n">
-        <v>78.6035142346889</v>
+        <v>78.60351423468916</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902925</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396416</v>
+        <v>285.7087110396396</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902961</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902961</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>257.9506595121318</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
